--- a/wtc01-cadence.xlsx
+++ b/wtc01-cadence.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maciej\Desktop\WTC wykresy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE0A466-BBD1-4B2F-A50F-586C618BF322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65E4E16-4A9F-4C1B-A047-913C838D82F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1E280C50-25B6-4A10-AC48-D689C874E507}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1E280C50-25B6-4A10-AC48-D689C874E507}"/>
   </bookViews>
   <sheets>
     <sheet name="Cadence" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="23">
   <si>
     <t>Cadence</t>
   </si>
@@ -67,35 +67,50 @@
     <t>Cadence Decription</t>
   </si>
   <si>
-    <t>vi:PAC</t>
-  </si>
-  <si>
-    <t>V:PAC</t>
-  </si>
-  <si>
-    <t>I:PAC</t>
-  </si>
-  <si>
-    <t>ii:rIAC</t>
-  </si>
-  <si>
-    <t>V:rIAC</t>
-  </si>
-  <si>
-    <t>III:PAC</t>
-  </si>
-  <si>
-    <t>vi: rIAC</t>
-  </si>
-  <si>
-    <t>ii: PAC</t>
+    <t>PAC</t>
+  </si>
+  <si>
+    <t>rIAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> rIAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PAC</t>
+  </si>
+  <si>
+    <t>Episode Name</t>
+  </si>
+  <si>
+    <t>Z1</t>
+  </si>
+  <si>
+    <t>Z2</t>
+  </si>
+  <si>
+    <t>Z3</t>
+  </si>
+  <si>
+    <t>Z4</t>
+  </si>
+  <si>
+    <t>Z5</t>
+  </si>
+  <si>
+    <t>Z6</t>
+  </si>
+  <si>
+    <t>Z7</t>
+  </si>
+  <si>
+    <t>Z8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,19 +135,19 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -151,7 +166,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,8 +483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3426439-49F1-4280-8AD7-8B7EFEAFA271}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,7 +550,7 @@
         <v>29.5</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -551,7 +566,7 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -567,7 +582,7 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -583,7 +598,7 @@
         <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -599,7 +614,7 @@
         <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -615,7 +630,7 @@
         <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -631,7 +646,7 @@
         <v>112</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -647,7 +662,7 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -663,7 +678,7 @@
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -679,7 +694,7 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -695,7 +710,7 @@
         <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -711,7 +726,7 @@
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -727,10 +742,10 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>851</v>
       </c>
@@ -742,8 +757,11 @@
         <f>B17/12+1</f>
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>851</v>
       </c>
@@ -754,6 +772,9 @@
       <c r="C18" s="2">
         <f>B18/12+1</f>
         <v>43</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -764,537 +785,924 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D44C5E42-7A87-494C-8677-222FA8FF2900}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>847</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2">
         <v>65</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>97</v>
       </c>
-      <c r="D2">
-        <f>C2-B2</f>
+      <c r="E2">
+        <f>D2-C2</f>
         <v>32</v>
-      </c>
-      <c r="E2" s="2">
-        <f>B2/16+1</f>
-        <v>5.0625</v>
       </c>
       <c r="F2" s="2">
         <f>C2/16+1</f>
+        <v>5.0625</v>
+      </c>
+      <c r="G2" s="2">
+        <f>D2/16+1</f>
         <v>7.0625</v>
       </c>
-      <c r="G2" s="2">
-        <f>F2-E2</f>
+      <c r="H2" s="2">
+        <f>G2-F2</f>
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>847</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3">
         <v>129</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>162</v>
       </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D18" si="0">C3-B3</f>
+      <c r="E3">
+        <f t="shared" ref="E3:E18" si="0">D3-C3</f>
         <v>33</v>
       </c>
-      <c r="E3" s="2">
-        <f t="shared" ref="E3:E18" si="1">B3/16+1</f>
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F18" si="1">C3/16+1</f>
         <v>9.0625</v>
       </c>
-      <c r="F3" s="2">
-        <f t="shared" ref="F3:F7" si="2">C3/16+1</f>
+      <c r="G3" s="2">
+        <f t="shared" ref="G3:G7" si="2">D3/16+1</f>
         <v>11.125</v>
       </c>
-      <c r="G3" s="2">
-        <f t="shared" ref="G3:G7" si="3">F3-E3</f>
+      <c r="H3" s="2">
+        <f t="shared" ref="H3:H7" si="3">G3-F3</f>
         <v>2.0625</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>847</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4">
         <v>193</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>226</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <f t="shared" si="1"/>
         <v>13.0625</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="2">
         <f t="shared" si="2"/>
         <v>15.125</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
         <f t="shared" si="3"/>
         <v>2.0625</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>847</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
         <v>256</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>304</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>847</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
         <v>338</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>409</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <f t="shared" si="0"/>
         <v>71</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <f t="shared" si="1"/>
         <v>22.125</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="2">
         <f t="shared" si="2"/>
         <v>26.5625</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H6" s="2">
         <f t="shared" si="3"/>
         <v>4.4375</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>847</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
         <v>444</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>458</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <f t="shared" si="1"/>
         <v>28.75</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <f t="shared" si="2"/>
         <v>29.625</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <f t="shared" si="3"/>
         <v>0.875</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>848</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8">
         <v>98</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>149</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="2">
         <f t="shared" si="1"/>
         <v>7.125</v>
       </c>
-      <c r="F8" s="2">
-        <f t="shared" ref="F8:F18" si="4">C8/16+1</f>
+      <c r="G8" s="2">
+        <f t="shared" ref="G8:G18" si="4">D8/16+1</f>
         <v>10.3125</v>
       </c>
-      <c r="G8" s="2">
-        <f t="shared" ref="G8:G18" si="5">F8-E8</f>
+      <c r="H8" s="2">
+        <f t="shared" ref="H8:H18" si="5">G8-F8</f>
         <v>3.1875</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>848</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9">
         <v>177</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>212</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F9" s="2">
         <f t="shared" si="1"/>
         <v>12.0625</v>
       </c>
-      <c r="F9" s="2">
+      <c r="G9" s="2">
         <f t="shared" si="4"/>
         <v>14.25</v>
       </c>
-      <c r="G9" s="2">
+      <c r="H9" s="2">
         <f t="shared" si="5"/>
         <v>2.1875</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>848</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10">
         <v>242</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>288</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F10" s="2">
         <f t="shared" si="1"/>
         <v>16.125</v>
       </c>
-      <c r="F10" s="2">
+      <c r="G10" s="2">
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="G10" s="2">
+      <c r="H10" s="2">
         <f t="shared" si="5"/>
         <v>2.875</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>848</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11">
         <v>321</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>380</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F11" s="2">
         <f t="shared" si="1"/>
         <v>21.0625</v>
       </c>
-      <c r="F11" s="2">
+      <c r="G11" s="2">
         <f t="shared" si="4"/>
         <v>24.75</v>
       </c>
-      <c r="G11" s="2">
+      <c r="H11" s="2">
         <f t="shared" si="5"/>
         <v>3.6875</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>848</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12">
         <v>441</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>661</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <f t="shared" si="0"/>
         <v>220</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F12" s="2">
         <f t="shared" si="1"/>
         <v>28.5625</v>
       </c>
-      <c r="F12" s="2">
+      <c r="G12" s="2">
         <f t="shared" si="4"/>
         <v>42.3125</v>
       </c>
-      <c r="G12" s="2">
+      <c r="H12" s="2">
         <f t="shared" si="5"/>
         <v>13.75</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>848</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13">
         <v>754</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>828</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <f t="shared" si="0"/>
         <v>74</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F13" s="2">
         <f t="shared" si="1"/>
         <v>48.125</v>
       </c>
-      <c r="F13" s="2">
+      <c r="G13" s="2">
         <f t="shared" si="4"/>
         <v>52.75</v>
       </c>
-      <c r="G13" s="2">
+      <c r="H13" s="2">
         <f t="shared" si="5"/>
         <v>4.625</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>848</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14">
         <v>842</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>880</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="E14" s="2">
+      <c r="F14" s="2">
         <f t="shared" si="1"/>
         <v>53.625</v>
       </c>
-      <c r="F14" s="2">
+      <c r="G14" s="2">
         <f t="shared" si="4"/>
         <v>56</v>
       </c>
-      <c r="G14" s="2">
+      <c r="H14" s="2">
         <f t="shared" si="5"/>
         <v>2.375</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>849</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
         <v>152</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>176</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="E15" s="2">
+      <c r="F15" s="2">
         <f t="shared" si="1"/>
         <v>10.5</v>
       </c>
-      <c r="F15" s="2">
+      <c r="G15" s="2">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="G15" s="2">
+      <c r="H15" s="2">
         <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>849</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
         <v>264</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>296</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="E16" s="2">
+      <c r="F16" s="2">
         <f t="shared" si="1"/>
         <v>17.5</v>
       </c>
-      <c r="F16" s="2">
+      <c r="G16" s="2">
         <f t="shared" si="4"/>
         <v>19.5</v>
       </c>
-      <c r="G16" s="2">
+      <c r="H16" s="2">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>849</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
         <v>1392</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>1408</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="E17" s="2">
+      <c r="F17" s="2">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
-      <c r="F17" s="2">
+      <c r="G17" s="2">
         <f t="shared" si="4"/>
         <v>89</v>
       </c>
-      <c r="G17" s="2">
+      <c r="H17" s="2">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>849</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
         <v>1740</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>1776</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="E18" s="2">
+      <c r="F18" s="2">
         <f t="shared" si="1"/>
         <v>109.75</v>
       </c>
-      <c r="F18" s="2">
+      <c r="G18" s="2">
         <f t="shared" si="4"/>
         <v>112</v>
       </c>
-      <c r="G18" s="2">
+      <c r="H18" s="2">
         <f t="shared" si="5"/>
         <v>2.25</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>850</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19">
+        <v>36</v>
+      </c>
+      <c r="D19">
+        <v>52</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ref="E19:E22" si="6">D19-C19</f>
+        <v>16</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" ref="F19:F22" si="7">C19/16+1</f>
+        <v>3.25</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" ref="G19:G22" si="8">D19/16+1</f>
+        <v>4.25</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" ref="H19:H22" si="9">G19-F19</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>850</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20">
+        <v>84</v>
+      </c>
+      <c r="D20">
+        <v>100</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="7"/>
+        <v>6.25</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="8"/>
+        <v>7.25</v>
+      </c>
+      <c r="H20" s="2">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>850</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21">
+        <f>8*16+4</f>
+        <v>132</v>
+      </c>
+      <c r="D21">
+        <f>132+32</f>
+        <v>164</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="7"/>
+        <v>9.25</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="8"/>
+        <v>11.25</v>
+      </c>
+      <c r="H21" s="2">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>850</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22">
+        <f>15*16+4</f>
+        <v>244</v>
+      </c>
+      <c r="D22">
+        <f>244+7*16</f>
+        <v>356</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="6"/>
+        <v>112</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="7"/>
+        <v>16.25</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="8"/>
+        <v>23.25</v>
+      </c>
+      <c r="H22" s="2">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>851</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23">
+        <v>64</v>
+      </c>
+      <c r="D23">
+        <v>80</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ref="E23:E30" si="10">D23-C23</f>
+        <v>16</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" ref="F23:F30" si="11">C23/16+1</f>
+        <v>5</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" ref="G23:G30" si="12">D23/16+1</f>
+        <v>6</v>
+      </c>
+      <c r="H23" s="2">
+        <f t="shared" ref="H23:H30" si="13">G23-F23</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>851</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24">
+        <v>145</v>
+      </c>
+      <c r="D24">
+        <v>192</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="10"/>
+        <v>47</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" si="11"/>
+        <v>10.0625</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="12"/>
+        <v>13</v>
+      </c>
+      <c r="H24" s="2">
+        <f t="shared" si="13"/>
+        <v>2.9375</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>851</v>
+      </c>
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25">
+        <v>241</v>
+      </c>
+      <c r="D25">
+        <v>257</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="10"/>
+        <v>16</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="11"/>
+        <v>16.0625</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="12"/>
+        <v>17.0625</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>851</v>
+      </c>
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26">
+        <v>306</v>
+      </c>
+      <c r="D26">
+        <v>320</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="10"/>
+        <v>14</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" si="11"/>
+        <v>20.125</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" si="12"/>
+        <v>21</v>
+      </c>
+      <c r="H26" s="2">
+        <f t="shared" si="13"/>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>851</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27">
+        <v>406</v>
+      </c>
+      <c r="D27">
+        <v>416</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="F27" s="2">
+        <f t="shared" si="11"/>
+        <v>26.375</v>
+      </c>
+      <c r="G27" s="2">
+        <f t="shared" si="12"/>
+        <v>27</v>
+      </c>
+      <c r="H27" s="2">
+        <f t="shared" si="13"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>851</v>
+      </c>
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28">
+        <v>481</v>
+      </c>
+      <c r="D28">
+        <v>528</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="10"/>
+        <v>47</v>
+      </c>
+      <c r="F28" s="2">
+        <f t="shared" si="11"/>
+        <v>31.0625</v>
+      </c>
+      <c r="G28" s="2">
+        <f t="shared" si="12"/>
+        <v>34</v>
+      </c>
+      <c r="H28" s="2">
+        <f t="shared" si="13"/>
+        <v>2.9375</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>851</v>
+      </c>
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29">
+        <v>562</v>
+      </c>
+      <c r="D29">
+        <v>624</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="10"/>
+        <v>62</v>
+      </c>
+      <c r="F29" s="2">
+        <f t="shared" si="11"/>
+        <v>36.125</v>
+      </c>
+      <c r="G29" s="2">
+        <f t="shared" si="12"/>
+        <v>40</v>
+      </c>
+      <c r="H29" s="2">
+        <f t="shared" si="13"/>
+        <v>3.875</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>851</v>
+      </c>
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30">
+        <v>658</v>
+      </c>
+      <c r="D30">
+        <v>704</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="10"/>
+        <v>46</v>
+      </c>
+      <c r="F30" s="2">
+        <f t="shared" si="11"/>
+        <v>42.125</v>
+      </c>
+      <c r="G30" s="2">
+        <f t="shared" si="12"/>
+        <v>45</v>
+      </c>
+      <c r="H30" s="2">
+        <f t="shared" si="13"/>
+        <v>2.875</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>